--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7281529999999999</v>
+        <v>0.7257866666666666</v>
       </c>
       <c r="H2">
-        <v>2.184459</v>
+        <v>2.17736</v>
       </c>
       <c r="I2">
-        <v>0.04815321991878078</v>
+        <v>0.03581035020366668</v>
       </c>
       <c r="J2">
-        <v>0.05312825886392748</v>
+        <v>0.03835869274612413</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.927570333333333</v>
+        <v>5.810536333333334</v>
       </c>
       <c r="N2">
-        <v>23.782711</v>
+        <v>17.431609</v>
       </c>
       <c r="O2">
-        <v>0.1653609910176873</v>
+        <v>0.1381041551074698</v>
       </c>
       <c r="P2">
-        <v>0.1845630641991209</v>
+        <v>0.1509795899719137</v>
       </c>
       <c r="Q2">
-        <v>5.772484120927666</v>
+        <v>4.217209796915555</v>
       </c>
       <c r="R2">
-        <v>51.952357088349</v>
+        <v>37.95488817224</v>
       </c>
       <c r="S2">
-        <v>0.007962664166462229</v>
+        <v>0.004945558158979995</v>
       </c>
       <c r="T2">
-        <v>0.009805514251490564</v>
+        <v>0.005791379702668443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7281529999999999</v>
+        <v>0.7257866666666666</v>
       </c>
       <c r="H3">
-        <v>2.184459</v>
+        <v>2.17736</v>
       </c>
       <c r="I3">
-        <v>0.04815321991878078</v>
+        <v>0.03581035020366668</v>
       </c>
       <c r="J3">
-        <v>0.05312825886392748</v>
+        <v>0.03835869274612413</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>24.330847</v>
       </c>
       <c r="N3">
-        <v>72.992541</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O3">
-        <v>0.5075165281476605</v>
+        <v>0.5782927556459271</v>
       </c>
       <c r="P3">
-        <v>0.5664504366487054</v>
+        <v>0.6322069242826694</v>
       </c>
       <c r="Q3">
-        <v>17.716579235591</v>
+        <v>17.65900434130666</v>
       </c>
       <c r="R3">
-        <v>159.449213120319</v>
+        <v>158.93103907176</v>
       </c>
       <c r="S3">
-        <v>0.02443855499231039</v>
+        <v>0.02070886609992409</v>
       </c>
       <c r="T3">
-        <v>0.03009452543185718</v>
+        <v>0.02425063116053108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7281529999999999</v>
+        <v>0.7257866666666666</v>
       </c>
       <c r="H4">
-        <v>2.184459</v>
+        <v>2.17736</v>
       </c>
       <c r="I4">
-        <v>0.04815321991878078</v>
+        <v>0.03581035020366668</v>
       </c>
       <c r="J4">
-        <v>0.05312825886392748</v>
+        <v>0.03835869274612413</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3113256666666667</v>
+        <v>0.5121463333333333</v>
       </c>
       <c r="N4">
-        <v>0.9339770000000001</v>
+        <v>1.536439</v>
       </c>
       <c r="O4">
-        <v>0.006493934283090206</v>
+        <v>0.01217263477910534</v>
       </c>
       <c r="P4">
-        <v>0.007248023869587551</v>
+        <v>0.01330748815194611</v>
       </c>
       <c r="Q4">
-        <v>0.2266927181603333</v>
+        <v>0.3717089801155555</v>
       </c>
       <c r="R4">
-        <v>2.040234463443</v>
+        <v>3.34538082104</v>
       </c>
       <c r="S4">
-        <v>0.0003127038456717527</v>
+        <v>0.0004359063143410951</v>
       </c>
       <c r="T4">
-        <v>0.0003850748883953727</v>
+        <v>0.000510457849243188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7281529999999999</v>
+        <v>0.7257866666666666</v>
       </c>
       <c r="H5">
-        <v>2.184459</v>
+        <v>2.17736</v>
       </c>
       <c r="I5">
-        <v>0.04815321991878078</v>
+        <v>0.03581035020366668</v>
       </c>
       <c r="J5">
-        <v>0.05312825886392748</v>
+        <v>0.03835869274612413</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.963446</v>
+        <v>10.7640175</v>
       </c>
       <c r="N5">
-        <v>29.926892</v>
+        <v>21.528035</v>
       </c>
       <c r="O5">
-        <v>0.31212214531804</v>
+        <v>0.2558379222020501</v>
       </c>
       <c r="P5">
-        <v>0.2322442924810447</v>
+        <v>0.1864597752967616</v>
       </c>
       <c r="Q5">
-        <v>10.895678095238</v>
+        <v>7.812380381266666</v>
       </c>
       <c r="R5">
-        <v>65.374068571428</v>
+        <v>46.8742822876</v>
       </c>
       <c r="S5">
-        <v>0.01502968630502123</v>
+        <v>0.009161645589433847</v>
       </c>
       <c r="T5">
-        <v>0.01233873489060263</v>
+        <v>0.007152353230119827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7281529999999999</v>
+        <v>0.7257866666666666</v>
       </c>
       <c r="H6">
-        <v>2.184459</v>
+        <v>2.17736</v>
       </c>
       <c r="I6">
-        <v>0.04815321991878078</v>
+        <v>0.03581035020366668</v>
       </c>
       <c r="J6">
-        <v>0.05312825886392748</v>
+        <v>0.03835869274612413</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4078053333333333</v>
+        <v>0.6560336666666666</v>
       </c>
       <c r="N6">
-        <v>1.223416</v>
+        <v>1.968101</v>
       </c>
       <c r="O6">
-        <v>0.008506401233521903</v>
+        <v>0.01559253226544757</v>
       </c>
       <c r="P6">
-        <v>0.009494182801541495</v>
+        <v>0.017046222296709</v>
       </c>
       <c r="Q6">
-        <v>0.2969446768826666</v>
+        <v>0.476140488151111</v>
       </c>
       <c r="R6">
-        <v>2.672502091944</v>
+        <v>4.285264393359999</v>
       </c>
       <c r="S6">
-        <v>0.0004096106093151683</v>
+        <v>0.0005583740409876498</v>
       </c>
       <c r="T6">
-        <v>0.0005044094015817448</v>
+        <v>0.0006538708035615912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8.159136</v>
       </c>
       <c r="I7">
-        <v>0.1798562802759133</v>
+        <v>0.1341907252449499</v>
       </c>
       <c r="J7">
-        <v>0.1984384644042254</v>
+        <v>0.1437400296220378</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.927570333333333</v>
+        <v>5.810536333333334</v>
       </c>
       <c r="N7">
-        <v>23.782711</v>
+        <v>17.431609</v>
       </c>
       <c r="O7">
-        <v>0.1653609910176873</v>
+        <v>0.1381041551074698</v>
       </c>
       <c r="P7">
-        <v>0.1845630641991209</v>
+        <v>0.1509795899719137</v>
       </c>
       <c r="Q7">
-        <v>21.56070816641066</v>
+        <v>15.80298539220267</v>
       </c>
       <c r="R7">
-        <v>194.046373497696</v>
+        <v>142.226868529824</v>
       </c>
       <c r="S7">
-        <v>0.02974121274717995</v>
+        <v>0.01853229673321242</v>
       </c>
       <c r="T7">
-        <v>0.03662441104541203</v>
+        <v>0.021701810734886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>8.159136</v>
       </c>
       <c r="I8">
-        <v>0.1798562802759133</v>
+        <v>0.1341907252449499</v>
       </c>
       <c r="J8">
-        <v>0.1984384644042254</v>
+        <v>0.1437400296220378</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>24.330847</v>
       </c>
       <c r="N8">
-        <v>72.992541</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O8">
-        <v>0.5075165281476605</v>
+        <v>0.5782927556459271</v>
       </c>
       <c r="P8">
-        <v>0.5664504366487054</v>
+        <v>0.6322069242826694</v>
       </c>
       <c r="Q8">
-        <v>66.172896556064</v>
+        <v>66.17289655606399</v>
       </c>
       <c r="R8">
-        <v>595.556069004576</v>
+        <v>595.5560690045759</v>
       </c>
       <c r="S8">
-        <v>0.09128003493118406</v>
+        <v>0.07760152428402756</v>
       </c>
       <c r="T8">
-        <v>0.1124055548096721</v>
+        <v>0.09087344202364833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>8.159136</v>
       </c>
       <c r="I9">
-        <v>0.1798562802759133</v>
+        <v>0.1341907252449499</v>
       </c>
       <c r="J9">
-        <v>0.1984384644042254</v>
+        <v>0.1437400296220378</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3113256666666667</v>
+        <v>0.5121463333333333</v>
       </c>
       <c r="N9">
-        <v>0.9339770000000001</v>
+        <v>1.536439</v>
       </c>
       <c r="O9">
-        <v>0.006493934283090206</v>
+        <v>0.01217263477910534</v>
       </c>
       <c r="P9">
-        <v>0.007248023869587551</v>
+        <v>0.01330748815194611</v>
       </c>
       <c r="Q9">
-        <v>0.8467161515413333</v>
+        <v>1.392890528522666</v>
       </c>
       <c r="R9">
-        <v>7.620445363872</v>
+        <v>12.536014756704</v>
       </c>
       <c r="S9">
-        <v>0.001167974864512834</v>
+        <v>0.001633454689150047</v>
       </c>
       <c r="T9">
-        <v>0.001438286726646125</v>
+        <v>0.001912818741155651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>8.159136</v>
       </c>
       <c r="I10">
-        <v>0.1798562802759133</v>
+        <v>0.1341907252449499</v>
       </c>
       <c r="J10">
-        <v>0.1984384644042254</v>
+        <v>0.1437400296220378</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.963446</v>
+        <v>10.7640175</v>
       </c>
       <c r="N10">
-        <v>29.926892</v>
+        <v>21.528035</v>
       </c>
       <c r="O10">
-        <v>0.31212214531804</v>
+        <v>0.2558379222020501</v>
       </c>
       <c r="P10">
-        <v>0.2322442924810447</v>
+        <v>0.1864597752967616</v>
       </c>
       <c r="Q10">
-        <v>40.696263647552</v>
+        <v>29.27502756296</v>
       </c>
       <c r="R10">
-        <v>244.177581885312</v>
+        <v>175.65016537776</v>
       </c>
       <c r="S10">
-        <v>0.05613712804864075</v>
+        <v>0.03433107632545418</v>
       </c>
       <c r="T10">
-        <v>0.04608620076658431</v>
+        <v>0.02680173362447504</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>8.159136</v>
       </c>
       <c r="I11">
-        <v>0.1798562802759133</v>
+        <v>0.1341907252449499</v>
       </c>
       <c r="J11">
-        <v>0.1984384644042254</v>
+        <v>0.1437400296220378</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4078053333333333</v>
+        <v>0.6560336666666666</v>
       </c>
       <c r="N11">
-        <v>1.223416</v>
+        <v>1.968101</v>
       </c>
       <c r="O11">
-        <v>0.008506401233521903</v>
+        <v>0.01559253226544757</v>
       </c>
       <c r="P11">
-        <v>0.009494182801541495</v>
+        <v>0.017046222296709</v>
       </c>
       <c r="Q11">
-        <v>1.109113058730667</v>
+        <v>1.784222635637333</v>
       </c>
       <c r="R11">
-        <v>9.982017528575998</v>
+        <v>16.058003720736</v>
       </c>
       <c r="S11">
-        <v>0.00152992968439569</v>
+        <v>0.002092373213105692</v>
       </c>
       <c r="T11">
-        <v>0.001884011055910901</v>
+        <v>0.002450224497872794</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.08648</v>
+        <v>5.552337666666666</v>
       </c>
       <c r="H12">
-        <v>12.25944</v>
+        <v>16.657013</v>
       </c>
       <c r="I12">
-        <v>0.270241515359683</v>
+        <v>0.2739526164148458</v>
       </c>
       <c r="J12">
-        <v>0.2981620171615888</v>
+        <v>0.293447681474444</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.927570333333333</v>
+        <v>5.810536333333334</v>
       </c>
       <c r="N12">
-        <v>23.782711</v>
+        <v>17.431609</v>
       </c>
       <c r="O12">
-        <v>0.1653609910176873</v>
+        <v>0.1381041551074698</v>
       </c>
       <c r="P12">
-        <v>0.1845630641991209</v>
+        <v>0.1509795899719137</v>
       </c>
       <c r="Q12">
-        <v>32.39585761575999</v>
+        <v>32.26205974710189</v>
       </c>
       <c r="R12">
-        <v>291.56271854184</v>
+        <v>290.358537723917</v>
       </c>
       <c r="S12">
-        <v>0.04468740479399876</v>
+        <v>0.03783399462945303</v>
       </c>
       <c r="T12">
-        <v>0.05502969551513371</v>
+        <v>0.0443046106272203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.08648</v>
+        <v>5.552337666666666</v>
       </c>
       <c r="H13">
-        <v>12.25944</v>
+        <v>16.657013</v>
       </c>
       <c r="I13">
-        <v>0.270241515359683</v>
+        <v>0.2739526164148458</v>
       </c>
       <c r="J13">
-        <v>0.2981620171615888</v>
+        <v>0.293447681474444</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>24.330847</v>
       </c>
       <c r="N13">
-        <v>72.992541</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O13">
-        <v>0.5075165281476605</v>
+        <v>0.5782927556459271</v>
       </c>
       <c r="P13">
-        <v>0.5664504366487054</v>
+        <v>0.6322069242826694</v>
       </c>
       <c r="Q13">
-        <v>99.42751964856001</v>
+        <v>135.0930782600036</v>
       </c>
       <c r="R13">
-        <v>894.84767683704</v>
+        <v>1215.837704340033</v>
       </c>
       <c r="S13">
-        <v>0.137152035636709</v>
+        <v>0.1584248134629528</v>
       </c>
       <c r="T13">
-        <v>0.1688940048132408</v>
+        <v>0.1855196561428387</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.08648</v>
+        <v>5.552337666666666</v>
       </c>
       <c r="H14">
-        <v>12.25944</v>
+        <v>16.657013</v>
       </c>
       <c r="I14">
-        <v>0.270241515359683</v>
+        <v>0.2739526164148458</v>
       </c>
       <c r="J14">
-        <v>0.2981620171615888</v>
+        <v>0.293447681474444</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3113256666666667</v>
+        <v>0.5121463333333333</v>
       </c>
       <c r="N14">
-        <v>0.9339770000000001</v>
+        <v>1.536439</v>
       </c>
       <c r="O14">
-        <v>0.006493934283090206</v>
+        <v>0.01217263477910534</v>
       </c>
       <c r="P14">
-        <v>0.007248023869587551</v>
+        <v>0.01330748815194611</v>
       </c>
       <c r="Q14">
-        <v>1.27222611032</v>
+        <v>2.843609377411888</v>
       </c>
       <c r="R14">
-        <v>11.45003499288</v>
+        <v>25.592484396707</v>
       </c>
       <c r="S14">
-        <v>0.001754930641308494</v>
+        <v>0.003334725146398257</v>
       </c>
       <c r="T14">
-        <v>0.002161085417391568</v>
+        <v>0.003905051544437218</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.08648</v>
+        <v>5.552337666666666</v>
       </c>
       <c r="H15">
-        <v>12.25944</v>
+        <v>16.657013</v>
       </c>
       <c r="I15">
-        <v>0.270241515359683</v>
+        <v>0.2739526164148458</v>
       </c>
       <c r="J15">
-        <v>0.2981620171615888</v>
+        <v>0.293447681474444</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.963446</v>
+        <v>10.7640175</v>
       </c>
       <c r="N15">
-        <v>29.926892</v>
+        <v>21.528035</v>
       </c>
       <c r="O15">
-        <v>0.31212214531804</v>
+        <v>0.2558379222020501</v>
       </c>
       <c r="P15">
-        <v>0.2322442924810447</v>
+        <v>0.1864597752967616</v>
       </c>
       <c r="Q15">
-        <v>61.14782281008</v>
+        <v>59.76545980990917</v>
       </c>
       <c r="R15">
-        <v>366.88693686048</v>
+        <v>358.592758859455</v>
       </c>
       <c r="S15">
-        <v>0.08434836152806233</v>
+        <v>0.0700874681653894</v>
       </c>
       <c r="T15">
-        <v>0.06924642672041431</v>
+        <v>0.05471618874908051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.08648</v>
+        <v>5.552337666666666</v>
       </c>
       <c r="H16">
-        <v>12.25944</v>
+        <v>16.657013</v>
       </c>
       <c r="I16">
-        <v>0.270241515359683</v>
+        <v>0.2739526164148458</v>
       </c>
       <c r="J16">
-        <v>0.2981620171615888</v>
+        <v>0.293447681474444</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4078053333333333</v>
+        <v>0.6560336666666666</v>
       </c>
       <c r="N16">
-        <v>1.223416</v>
+        <v>1.968101</v>
       </c>
       <c r="O16">
-        <v>0.008506401233521903</v>
+        <v>0.01559253226544757</v>
       </c>
       <c r="P16">
-        <v>0.009494182801541495</v>
+        <v>0.017046222296709</v>
       </c>
       <c r="Q16">
-        <v>1.66648833856</v>
+        <v>3.642520438034778</v>
       </c>
       <c r="R16">
-        <v>14.99839504704</v>
+        <v>32.782683942313</v>
       </c>
       <c r="S16">
-        <v>0.002298782759604436</v>
+        <v>0.004271615010652265</v>
       </c>
       <c r="T16">
-        <v>0.002830804695408477</v>
+        <v>0.005002174410867229</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.248048499999999</v>
+        <v>4.039389</v>
       </c>
       <c r="H17">
-        <v>8.496096999999999</v>
+        <v>8.078778</v>
       </c>
       <c r="I17">
-        <v>0.2809261427833804</v>
+        <v>0.1993036540105985</v>
       </c>
       <c r="J17">
-        <v>0.2066336977480638</v>
+        <v>0.1423243575091612</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.927570333333333</v>
+        <v>5.810536333333334</v>
       </c>
       <c r="N17">
-        <v>23.782711</v>
+        <v>17.431609</v>
       </c>
       <c r="O17">
-        <v>0.1653609910176873</v>
+        <v>0.1381041551074698</v>
       </c>
       <c r="P17">
-        <v>0.1845630641991209</v>
+        <v>0.1509795899719137</v>
       </c>
       <c r="Q17">
-        <v>33.67670326316116</v>
+        <v>23.471016548967</v>
       </c>
       <c r="R17">
-        <v>202.060219578967</v>
+        <v>140.826099293802</v>
       </c>
       <c r="S17">
-        <v>0.04645422537343611</v>
+        <v>0.0275246627469652</v>
       </c>
       <c r="T17">
-        <v>0.03813694842317765</v>
+        <v>0.02148807313974922</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.248048499999999</v>
+        <v>4.039389</v>
       </c>
       <c r="H18">
-        <v>8.496096999999999</v>
+        <v>8.078778</v>
       </c>
       <c r="I18">
-        <v>0.2809261427833804</v>
+        <v>0.1993036540105985</v>
       </c>
       <c r="J18">
-        <v>0.2066336977480638</v>
+        <v>0.1423243575091612</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>24.330847</v>
       </c>
       <c r="N18">
-        <v>72.992541</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O18">
-        <v>0.5075165281476605</v>
+        <v>0.5782927556459271</v>
       </c>
       <c r="P18">
-        <v>0.5664504366487054</v>
+        <v>0.6322069242826694</v>
       </c>
       <c r="Q18">
-        <v>103.3586181020795</v>
+        <v>98.28175573248298</v>
       </c>
       <c r="R18">
-        <v>620.1517086124769</v>
+        <v>589.6905343948979</v>
       </c>
       <c r="S18">
-        <v>0.1425746606513352</v>
+        <v>0.1152558592880915</v>
       </c>
       <c r="T18">
-        <v>0.1170477483157274</v>
+        <v>0.08997844431137386</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.248048499999999</v>
+        <v>4.039389</v>
       </c>
       <c r="H19">
-        <v>8.496096999999999</v>
+        <v>8.078778</v>
       </c>
       <c r="I19">
-        <v>0.2809261427833804</v>
+        <v>0.1993036540105985</v>
       </c>
       <c r="J19">
-        <v>0.2066336977480638</v>
+        <v>0.1423243575091612</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3113256666666667</v>
+        <v>0.5121463333333333</v>
       </c>
       <c r="N19">
-        <v>0.9339770000000001</v>
+        <v>1.536439</v>
       </c>
       <c r="O19">
-        <v>0.006493934283090206</v>
+        <v>0.01217263477910534</v>
       </c>
       <c r="P19">
-        <v>0.007248023869587551</v>
+        <v>0.01330748815194611</v>
       </c>
       <c r="Q19">
-        <v>1.322526531294833</v>
+        <v>2.068758265257</v>
       </c>
       <c r="R19">
-        <v>7.935159187768999</v>
+        <v>12.412549591542</v>
       </c>
       <c r="S19">
-        <v>0.001824315909637288</v>
+        <v>0.00242605059041219</v>
       </c>
       <c r="T19">
-        <v>0.001497685973539106</v>
+        <v>0.001893979701286505</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.248048499999999</v>
+        <v>4.039389</v>
       </c>
       <c r="H20">
-        <v>8.496096999999999</v>
+        <v>8.078778</v>
       </c>
       <c r="I20">
-        <v>0.2809261427833804</v>
+        <v>0.1993036540105985</v>
       </c>
       <c r="J20">
-        <v>0.2066336977480638</v>
+        <v>0.1423243575091612</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.963446</v>
+        <v>10.7640175</v>
       </c>
       <c r="N20">
-        <v>29.926892</v>
+        <v>21.528035</v>
       </c>
       <c r="O20">
-        <v>0.31212214531804</v>
+        <v>0.2558379222020501</v>
       </c>
       <c r="P20">
-        <v>0.2322442924810447</v>
+        <v>0.1864597752967616</v>
       </c>
       <c r="Q20">
-        <v>63.565444335131</v>
+        <v>43.48005388530751</v>
       </c>
       <c r="R20">
-        <v>254.261777340524</v>
+        <v>173.92021554123</v>
       </c>
       <c r="S20">
-        <v>0.08768327036147071</v>
+        <v>0.05098943272934783</v>
       </c>
       <c r="T20">
-        <v>0.04798949693624112</v>
+        <v>0.02653776772041417</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.248048499999999</v>
+        <v>4.039389</v>
       </c>
       <c r="H21">
-        <v>8.496096999999999</v>
+        <v>8.078778</v>
       </c>
       <c r="I21">
-        <v>0.2809261427833804</v>
+        <v>0.1993036540105985</v>
       </c>
       <c r="J21">
-        <v>0.2066336977480638</v>
+        <v>0.1423243575091612</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4078053333333333</v>
+        <v>0.6560336666666666</v>
       </c>
       <c r="N21">
-        <v>1.223416</v>
+        <v>1.968101</v>
       </c>
       <c r="O21">
-        <v>0.008506401233521903</v>
+        <v>0.01559253226544757</v>
       </c>
       <c r="P21">
-        <v>0.009494182801541495</v>
+        <v>0.017046222296709</v>
       </c>
       <c r="Q21">
-        <v>1.732376834558666</v>
+        <v>2.649975176763</v>
       </c>
       <c r="R21">
-        <v>10.394261007352</v>
+        <v>15.899851060578</v>
       </c>
       <c r="S21">
-        <v>0.002389670487501098</v>
+        <v>0.003107648655781858</v>
       </c>
       <c r="T21">
-        <v>0.001961818099378591</v>
+        <v>0.002426092636337447</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.339191333333333</v>
+        <v>7.230285666666667</v>
       </c>
       <c r="H22">
-        <v>10.017574</v>
+        <v>21.690857</v>
       </c>
       <c r="I22">
-        <v>0.2208228416622424</v>
+        <v>0.3567426541259391</v>
       </c>
       <c r="J22">
-        <v>0.2436375618221946</v>
+        <v>0.3821292386482327</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.927570333333333</v>
+        <v>5.810536333333334</v>
       </c>
       <c r="N22">
-        <v>23.782711</v>
+        <v>17.431609</v>
       </c>
       <c r="O22">
-        <v>0.1653609910176873</v>
+        <v>0.1381041551074698</v>
       </c>
       <c r="P22">
-        <v>0.1845630641991209</v>
+        <v>0.1509795899719137</v>
       </c>
       <c r="Q22">
-        <v>26.47167415145711</v>
+        <v>42.0118375665459</v>
       </c>
       <c r="R22">
-        <v>238.245067363114</v>
+        <v>378.1065380989131</v>
       </c>
       <c r="S22">
-        <v>0.03651548393661026</v>
+        <v>0.04926764283885915</v>
       </c>
       <c r="T22">
-        <v>0.04496649496390701</v>
+        <v>0.05769371576738974</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.339191333333333</v>
+        <v>7.230285666666667</v>
       </c>
       <c r="H23">
-        <v>10.017574</v>
+        <v>21.690857</v>
       </c>
       <c r="I23">
-        <v>0.2208228416622424</v>
+        <v>0.3567426541259391</v>
       </c>
       <c r="J23">
-        <v>0.2436375618221946</v>
+        <v>0.3821292386482327</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>24.330847</v>
       </c>
       <c r="N23">
-        <v>72.992541</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O23">
-        <v>0.5075165281476605</v>
+        <v>0.5782927556459271</v>
       </c>
       <c r="P23">
-        <v>0.5664504366487054</v>
+        <v>0.6322069242826694</v>
       </c>
       <c r="Q23">
-        <v>81.24535343505934</v>
+        <v>175.9189743219596</v>
       </c>
       <c r="R23">
-        <v>731.2081809155341</v>
+        <v>1583.270768897637</v>
       </c>
       <c r="S23">
-        <v>0.1120712419361218</v>
+        <v>0.2063016925109312</v>
       </c>
       <c r="T23">
-        <v>0.1380086032782081</v>
+        <v>0.2415847506442774</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.339191333333333</v>
+        <v>7.230285666666667</v>
       </c>
       <c r="H24">
-        <v>10.017574</v>
+        <v>21.690857</v>
       </c>
       <c r="I24">
-        <v>0.2208228416622424</v>
+        <v>0.3567426541259391</v>
       </c>
       <c r="J24">
-        <v>0.2436375618221946</v>
+        <v>0.3821292386482327</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3113256666666667</v>
+        <v>0.5121463333333333</v>
       </c>
       <c r="N24">
-        <v>0.9339770000000001</v>
+        <v>1.536439</v>
       </c>
       <c r="O24">
-        <v>0.006493934283090206</v>
+        <v>0.01217263477910534</v>
       </c>
       <c r="P24">
-        <v>0.007248023869587551</v>
+        <v>0.01330748815194611</v>
       </c>
       <c r="Q24">
-        <v>1.039575967977556</v>
+        <v>3.702964293135889</v>
       </c>
       <c r="R24">
-        <v>9.356183711798</v>
+        <v>33.326678638223</v>
       </c>
       <c r="S24">
-        <v>0.001434009021959836</v>
+        <v>0.004342498038803755</v>
       </c>
       <c r="T24">
-        <v>0.001765890863615379</v>
+        <v>0.005085180315823543</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.339191333333333</v>
+        <v>7.230285666666667</v>
       </c>
       <c r="H25">
-        <v>10.017574</v>
+        <v>21.690857</v>
       </c>
       <c r="I25">
-        <v>0.2208228416622424</v>
+        <v>0.3567426541259391</v>
       </c>
       <c r="J25">
-        <v>0.2436375618221946</v>
+        <v>0.3821292386482327</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.963446</v>
+        <v>10.7640175</v>
       </c>
       <c r="N25">
-        <v>29.926892</v>
+        <v>21.528035</v>
       </c>
       <c r="O25">
-        <v>0.31212214531804</v>
+        <v>0.2558379222020501</v>
       </c>
       <c r="P25">
-        <v>0.2322442924810447</v>
+        <v>0.1864597752967616</v>
       </c>
       <c r="Q25">
-        <v>49.96580920000134</v>
+        <v>77.82692144599918</v>
       </c>
       <c r="R25">
-        <v>299.794855200008</v>
+        <v>466.9615286759951</v>
       </c>
       <c r="S25">
-        <v>0.06892369907484497</v>
+        <v>0.09126829939242491</v>
       </c>
       <c r="T25">
-        <v>0.05658343316720239</v>
+        <v>0.07125173197267208</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.339191333333333</v>
+        <v>7.230285666666667</v>
       </c>
       <c r="H26">
-        <v>10.017574</v>
+        <v>21.690857</v>
       </c>
       <c r="I26">
-        <v>0.2208228416622424</v>
+        <v>0.3567426541259391</v>
       </c>
       <c r="J26">
-        <v>0.2436375618221946</v>
+        <v>0.3821292386482327</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4078053333333333</v>
+        <v>0.6560336666666666</v>
       </c>
       <c r="N26">
-        <v>1.223416</v>
+        <v>1.968101</v>
       </c>
       <c r="O26">
-        <v>0.008506401233521903</v>
+        <v>0.01559253226544757</v>
       </c>
       <c r="P26">
-        <v>0.009494182801541495</v>
+        <v>0.017046222296709</v>
       </c>
       <c r="Q26">
-        <v>1.361740034753778</v>
+        <v>4.743310816950777</v>
       </c>
       <c r="R26">
-        <v>12.255660312784</v>
+        <v>42.689797352557</v>
       </c>
       <c r="S26">
-        <v>0.001878407692705511</v>
+        <v>0.005562521344920111</v>
       </c>
       <c r="T26">
-        <v>0.002313139549261783</v>
+        <v>0.006513859948069941</v>
       </c>
     </row>
   </sheetData>
